--- a/viruses/phage_num/terrestrial_deep_subsurface/terrestrial_deep_subsurface_phage_num_data.xlsx
+++ b/viruses/phage_num/terrestrial_deep_subsurface/terrestrial_deep_subsurface_phage_num_data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Remarks</t>
   </si>
@@ -37,6 +37,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Viral abundance (mL</t>
     </r>
@@ -47,6 +48,7 @@
         <sz val="12"/>
         <rFont val="Cambria"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-1</t>
     </r>
@@ -55,6 +57,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -65,6 +68,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Cell abundance (mL</t>
     </r>
@@ -75,6 +79,7 @@
         <sz val="12"/>
         <rFont val="Cambria"/>
         <family val="1"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">-1</t>
     </r>
@@ -83,6 +88,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -101,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">LR01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracted from Figure 6 in Roundnew et al.</t>
   </si>
   <si>
     <t xml:space="preserve">Depth [m]</t>
@@ -122,6 +131,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -144,6 +154,7 @@
       <sz val="12"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -430,9 +441,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,25 +640,28 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,7 +763,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
